--- a/Data/Forecasts/IDA1/2023-12-03_exo[].xlsx
+++ b/Data/Forecasts/IDA1/2023-12-03_exo[].xlsx
@@ -454,7 +454,7 @@
         <v>45263</v>
       </c>
       <c r="B2" t="n">
-        <v>121.8440093994141</v>
+        <v>124.9407424926758</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>45263.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>126.0872192382812</v>
+        <v>131.4092559814453</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45263.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>124.4139404296875</v>
+        <v>128.3921051025391</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45263.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>116.3377075195312</v>
+        <v>123.5036163330078</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45263.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>118.2130966186523</v>
+        <v>125.4058151245117</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45263.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>110.7059097290039</v>
+        <v>123.9601135253906</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45263.125</v>
       </c>
       <c r="B8" t="n">
-        <v>118.6023559570312</v>
+        <v>126.0068969726562</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45263.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>112.1103591918945</v>
+        <v>122.9411087036133</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45263.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>114.5454864501953</v>
+        <v>126.1399612426758</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45263.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>114.2472991943359</v>
+        <v>125.5306701660156</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45263.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>121.642692565918</v>
+        <v>128.0505065917969</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45263.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>133.6255493164062</v>
+        <v>136.166015625</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45263.25</v>
       </c>
       <c r="B14" t="n">
-        <v>136.8312225341797</v>
+        <v>140.05126953125</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45263.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>144.9425354003906</v>
+        <v>148.3330993652344</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45263.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>165.2181243896484</v>
+        <v>169.8754425048828</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45263.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>194.1484680175781</v>
+        <v>200.8213958740234</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45263.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>172.2839965820312</v>
+        <v>189.2234954833984</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45263.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>183.4171447753906</v>
+        <v>201.5697021484375</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45263.375</v>
       </c>
       <c r="B20" t="n">
-        <v>181.1670989990234</v>
+        <v>200.8118438720703</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45263.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>183.5927276611328</v>
+        <v>202.7599792480469</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45263.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>180.3729248046875</v>
+        <v>203.4048156738281</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45263.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>175.1280059814453</v>
+        <v>196.9842071533203</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>181.0653381347656</v>
+        <v>198.1509552001953</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45263.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>186.1416625976562</v>
+        <v>197.3408966064453</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>45263.5</v>
       </c>
       <c r="B26" t="n">
-        <v>185.0224304199219</v>
+        <v>192.8445892333984</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>45263.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>191.2476959228516</v>
+        <v>195.2014007568359</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>45263.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>188.1175231933594</v>
+        <v>192.3062438964844</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>45263.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>185.119140625</v>
+        <v>186.1914672851562</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>45263.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>187.4226379394531</v>
+        <v>189.1931762695312</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>45263.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>189.0012969970703</v>
+        <v>193.2124481201172</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>45263.625</v>
       </c>
       <c r="B32" t="n">
-        <v>202.9125061035156</v>
+        <v>198.7594757080078</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>45263.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>220.8197174072266</v>
+        <v>224.3966522216797</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>45263.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>211.7382202148438</v>
+        <v>209.4432067871094</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>45263.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>254.7248992919922</v>
+        <v>246.4754486083984</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>45263.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>264.4002075195312</v>
+        <v>242.4913024902344</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>45263.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>269.85546875</v>
+        <v>246.7333221435547</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>45263.75</v>
       </c>
       <c r="B38" t="n">
-        <v>244.5106658935547</v>
+        <v>223.8305206298828</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>45263.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>231.718017578125</v>
+        <v>209.7524566650391</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>45263.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>225.1485443115234</v>
+        <v>207.6990051269531</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>45263.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>213.0525207519531</v>
+        <v>190.8677215576172</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>45263.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>194.9266052246094</v>
+        <v>181.4691772460938</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>45263.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>175.9941864013672</v>
+        <v>160.7430114746094</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>45263.875</v>
       </c>
       <c r="B44" t="n">
-        <v>178.6766204833984</v>
+        <v>167.5046234130859</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>45263.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>163.6126098632812</v>
+        <v>154.0199279785156</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>45263.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>155.2340087890625</v>
+        <v>159.3650207519531</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>45263.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>148.6839599609375</v>
+        <v>147.1376342773438</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>45263.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>156.1147003173828</v>
+        <v>155.3755187988281</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>45263.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>148.0275726318359</v>
+        <v>154.7249298095703</v>
       </c>
     </row>
   </sheetData>
